--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/20/seed4/result_data_RandomForest.xlsx
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.254699999999993</v>
+        <v>-7.948399999999995</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.408700000000001</v>
+        <v>5.128999999999999</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.2062</v>
+        <v>16.2023</v>
       </c>
     </row>
     <row r="8">
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.87420000000001</v>
+        <v>-21.9242</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.53480000000001</v>
+        <v>16.5386</v>
       </c>
     </row>
     <row r="11">
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.341599999999996</v>
+        <v>5.345099999999997</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.08989999999999</v>
+        <v>-22.24679999999999</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.47490000000001</v>
+        <v>16.6734</v>
       </c>
     </row>
     <row r="14">
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.173700000000002</v>
+        <v>6.100500000000003</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.985099999999996</v>
+        <v>-8.841499999999998</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.0915</v>
+        <v>-21.923</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.03820000000001</v>
+        <v>15.8353</v>
       </c>
     </row>
     <row r="17">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.33610000000001</v>
+        <v>-22.17460000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -754,7 +754,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>8.453100000000004</v>
+        <v>8.8284</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.83529999999999</v>
+        <v>-19.93569999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.104</v>
+        <v>15.8903</v>
       </c>
     </row>
     <row r="21">
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.4789</v>
+        <v>16.43829999999999</v>
       </c>
     </row>
     <row r="25">
@@ -870,10 +870,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.10099999999998</v>
+        <v>-21.10959999999998</v>
       </c>
       <c r="B26" t="n">
-        <v>4.506500000000005</v>
+        <v>4.534400000000004</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.50959999999997</v>
+        <v>-21.55779999999996</v>
       </c>
       <c r="B27" t="n">
-        <v>5.358400000000004</v>
+        <v>5.372000000000005</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.630599999999998</v>
+        <v>-8.394199999999998</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.7764</v>
+        <v>-21.73789999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>5.522599999999999</v>
+        <v>5.4955</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.21959999999999</v>
+        <v>16.28379999999998</v>
       </c>
     </row>
     <row r="33">
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.4351</v>
+        <v>-7.474100000000002</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.61509999999999</v>
+        <v>-19.6535</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.885599999999997</v>
+        <v>-9.03709999999999</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.04539999999999</v>
+        <v>-19.98859999999998</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.029100000000005</v>
+        <v>9.149300000000006</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,13 +1077,13 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.518399999999998</v>
+        <v>4.549699999999999</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.593399999999994</v>
+        <v>-9.123599999999993</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.23559999999999</v>
+        <v>16.32739999999999</v>
       </c>
     </row>
     <row r="40">
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.516100000000002</v>
+        <v>-8.457099999999999</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.291500000000001</v>
+        <v>-7.250399999999998</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.59899999999999</v>
+        <v>-21.56899999999999</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.351399999999997</v>
+        <v>-7.863099999999999</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1230,16 +1230,16 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>6.408300000000008</v>
+        <v>6.280000000000005</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-8.082700000000001</v>
+        <v>-7.504000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>16.50640000000001</v>
+        <v>17.3775</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.51979999999999</v>
+        <v>17.5158</v>
       </c>
     </row>
     <row r="49">
@@ -1298,13 +1298,13 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.6119</v>
+        <v>5.655799999999999</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.314899999999994</v>
+        <v>-7.187499999999996</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.471499999999997</v>
+        <v>5.288399999999998</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.23480000000001</v>
+        <v>17.16210000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1355,7 +1355,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.1501</v>
+        <v>-8.275499999999997</v>
       </c>
       <c r="E54" t="n">
         <v>15.77</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.13669999999998</v>
+        <v>-22.21890000000001</v>
       </c>
       <c r="B55" t="n">
-        <v>5.360899999999998</v>
+        <v>5.196099999999998</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1392,12 +1392,12 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.6365</v>
+        <v>16.86460000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.1909</v>
+        <v>-22.0913</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.4992</v>
+        <v>-8.316400000000002</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-8.760899999999994</v>
+        <v>-8.550799999999999</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.972799999999993</v>
+        <v>-8.347499999999995</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.027299999999997</v>
+        <v>-5.961199999999996</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.70929999999999</v>
+        <v>-21.6664</v>
       </c>
       <c r="B69" t="n">
-        <v>5.501699999999996</v>
+        <v>5.557599999999996</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,13 +1621,13 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>6.753600000000001</v>
+        <v>5.692800000000001</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.0292</v>
+        <v>-6.969100000000002</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-22.0708</v>
+        <v>-22.02969999999999</v>
       </c>
       <c r="B76" t="n">
-        <v>4.941099999999997</v>
+        <v>4.855799999999996</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.76699999999998</v>
+        <v>-19.74269999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,13 +1808,13 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.004400000000003</v>
+        <v>5.697700000000006</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.1816</v>
+        <v>-7.053599999999997</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.0869</v>
+        <v>-22.0798</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.9595</v>
+        <v>-21.92670000000001</v>
       </c>
       <c r="B83" t="n">
-        <v>5.7685</v>
+        <v>6.404400000000002</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.2865</v>
+        <v>16.4239</v>
       </c>
     </row>
     <row r="85">
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.255099999999998</v>
+        <v>-7.274599999999993</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.33069999999998</v>
+        <v>-20.36119999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2029,7 +2029,7 @@
         <v>-20.95</v>
       </c>
       <c r="B94" t="n">
-        <v>5.308399999999995</v>
+        <v>5.3381</v>
       </c>
       <c r="C94" t="n">
         <v>-10.65</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.981800000000001</v>
+        <v>-8.342600000000003</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.98710000000001</v>
+        <v>-21.8818</v>
       </c>
       <c r="B97" t="n">
         <v>5.08</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.956099999999995</v>
+        <v>-8.046899999999994</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.992000000000002</v>
+        <v>5.8043</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.41840000000001</v>
+        <v>16.36040000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.79640000000001</v>
+        <v>16.88790000000002</v>
       </c>
     </row>
     <row r="102">
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>9.05800000000001</v>
+        <v>9.05080000000001</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
